--- a/biology/Zoologie/Bichon_(chien)/Bichon_(chien).xlsx
+++ b/biology/Zoologie/Bichon_(chien)/Bichon_(chien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bichon est une race de chien. Il existe cinq types de bichons : le maltais, le bolonais, le frisé, le havanais (rare) et le bichon russe.
 </t>
@@ -513,17 +525,162 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le bichon maltais
-Le bichon maltais serait originaire du bassin méditerranéen[1]. De petite taille, avec un tronc allongé, il est couvert d'un poil très long et blanc, et est soumis à une mue annuelle.  
+          <t>Le bichon maltais</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bichon maltais serait originaire du bassin méditerranéen. De petite taille, avec un tronc allongé, il est couvert d'un poil très long et blanc, et est soumis à une mue annuelle.  
 À l'âge adulte, il mesure entre 20 et 23 cm de hauteur pour un poids d'environ 3 kg. Son caractère très joueur peut aider les enfants en difficulté[réf. nécessaire]. Étant un chien adorable, il peut s'habituer à tout type de maitres (20-30 ans, avec enfants, senior). Son caractère varie en fonction du type de propriétaire, certains individus ont cependant tendance à être agressif envers les autres chiens. Ce chien très intelligent peut prendre part à beaucoup de jeux, son dressage de base (ne pas uriner dans la maison, ne pas trop aboyer, etc.) n’est pas très compliqué. Néanmoins, ayant un tempérament assez têtu, lui apprendre des ordres tels que « assis » ou « couché » sera plus ardu. C'est le chien de compagnie le plus classique. Il peut vivre jusqu'à l'âge de 18 ans. 
-Le bichon havanais
-D’un naturel joyeux, il est aimable et aime les enfants, facile à éduquer comme chien d’alarme, par ailleurs très mignon et affectueux.
-Le bichon à poil frisé
-Le bichon à poil frisé, autrefois appelé ténériffe, est un petit chien blanc gai, enjoué et affectueux. Il a été dérivé du Maltais au XVe siècle. Le peintre Francisco de Goya dépeint un Bichon à poil frisé dans sa peinture Portrait de la duchesse d'Alba en blanc, marquant le début du succès de ce chien comme animal de compagnie auprès de la noblesse de la Renaissance.
-Le bichon bolonais
-Le bichon bolonais est une race italienne très ancienne. La Fédération cynologique internationale reconnait ces petits chiens blancs sous le nom de bolognese. On en voit surtout au Canada et en Italie.
-Le bichon russe
-Le bichon russe s'appelle Bolonka zwetna en Russie et dans la plupart des pays non francophones. C'est un bichon plutôt petit (moins de 5 kg) et bien coloré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types de bichons</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Le bichon havanais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’un naturel joyeux, il est aimable et aime les enfants, facile à éduquer comme chien d’alarme, par ailleurs très mignon et affectueux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types de bichons</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le bichon à poil frisé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bichon à poil frisé, autrefois appelé ténériffe, est un petit chien blanc gai, enjoué et affectueux. Il a été dérivé du Maltais au XVe siècle. Le peintre Francisco de Goya dépeint un Bichon à poil frisé dans sa peinture Portrait de la duchesse d'Alba en blanc, marquant le début du succès de ce chien comme animal de compagnie auprès de la noblesse de la Renaissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types de bichons</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le bichon bolonais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bichon bolonais est une race italienne très ancienne. La Fédération cynologique internationale reconnait ces petits chiens blancs sous le nom de bolognese. On en voit surtout au Canada et en Italie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bichon_(chien)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de bichons</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le bichon russe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bichon russe s'appelle Bolonka zwetna en Russie et dans la plupart des pays non francophones. C'est un bichon plutôt petit (moins de 5 kg) et bien coloré.
 </t>
         </is>
       </c>
